--- a/Description/PAMSI1.xlsx
+++ b/Description/PAMSI1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bari1\Desktop\PAMSI\PAMSI1\Description\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D468190F-D85B-4DEF-BB84-C19AF7C85C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+  <si>
+    <t>Wstępnie posortowane:</t>
+  </si>
+  <si>
+    <t>Ilość elementów w tablicy:</t>
+  </si>
+  <si>
+    <t>odwrotnie</t>
+  </si>
+  <si>
+    <t>Quicksort</t>
+  </si>
+  <si>
+    <t>Introsort</t>
+  </si>
+  <si>
+    <t>Mergesort</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +57,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E74B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +129,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4472C4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF4472C4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF4472C4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF8EAADB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF8EAADB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF8EAADB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF8EAADB"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF8EAADB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF4472C4"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +298,2687 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="1"/>
+              <a:t>Quicksort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="1" baseline="0"/>
+              <a:t>: zależność śr. czasu sortowania od ilości elementów w tablicy</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6456612639268432E-2"/>
+          <c:y val="8.2981949768364968E-2"/>
+          <c:w val="0.86667681402788732"/>
+          <c:h val="0.77650792770977206"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>423.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A56D-429D-824D-29280EB31410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>355.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A56D-429D-824D-29280EB31410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A56D-429D-824D-29280EB31410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A56D-429D-824D-29280EB31410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>95%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A56D-429D-824D-29280EB31410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151.30000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A56D-429D-824D-29280EB31410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99,70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A56D-429D-824D-29280EB31410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>odwrotnie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A56D-429D-824D-29280EB31410}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1178181232"/>
+        <c:axId val="1181439088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1178181232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość elementów w</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> tablicy</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1181439088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1181439088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="425"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Średni</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>zas sortowania</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> jednej tablicy [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178181232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="1" baseline="0"/>
+              <a:t>Introsort: zależność śr. czasu sortowania od ilości elementów w tablicy</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6456612639268432E-2"/>
+          <c:y val="8.2981949768364968E-2"/>
+          <c:w val="0.86667681402788732"/>
+          <c:h val="0.77650792770977206"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>539.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D116-490F-9FD7-F254AD682E4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>196.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D116-490F-9FD7-F254AD682E4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>304.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D116-490F-9FD7-F254AD682E4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D116-490F-9FD7-F254AD682E4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>95%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D116-490F-9FD7-F254AD682E4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D116-490F-9FD7-F254AD682E4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99,70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D116-490F-9FD7-F254AD682E4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>odwrotnie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D116-490F-9FD7-F254AD682E4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1178181232"/>
+        <c:axId val="1181439088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1178181232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość elementów w</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> tablicy</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1181439088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1181439088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="550"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Średni</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>zas sortowania</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> jednej tablicy [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178181232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="1" baseline="0"/>
+              <a:t>Mergesort: zależność śr. czasu sortowania od ilości elementów w tablicy</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL" sz="1400" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6456612639268432E-2"/>
+          <c:y val="8.2981949768364968E-2"/>
+          <c:w val="0.86667681402788732"/>
+          <c:h val="0.77650792770977206"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>798.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E145-4726-85D1-31D28F2A4D87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>381.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>787.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E145-4726-85D1-31D28F2A4D87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$18:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$34:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>369.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>737.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E145-4726-85D1-31D28F2A4D87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>345.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>755.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E145-4726-85D1-31D28F2A4D87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>95%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$36:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>729.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E145-4726-85D1-31D28F2A4D87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>326.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>719.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E145-4726-85D1-31D28F2A4D87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>99,70%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>670.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E145-4726-85D1-31D28F2A4D87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>odwrotnie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>631</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E145-4726-85D1-31D28F2A4D87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1178181232"/>
+        <c:axId val="1181439088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1178181232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ilość elementów w</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> tablicy</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1181439088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1181439088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Średni</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> c</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>zas sortowania</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> jednej tablicy [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178181232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F13D6D-A609-4B69-8E8F-B7BEC4A7BB41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FA3F06-3A03-409E-8384-9B4FEB214624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>52389</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE893448-1876-489A-A26A-9291B1334FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3243,617 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="F6" s="4">
+        <v>201.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>423.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="E7" s="6">
+        <v>30.9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>170.6</v>
+      </c>
+      <c r="G7" s="6">
+        <v>355.7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>274.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E9" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>97.6</v>
+      </c>
+      <c r="G9" s="6">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>73</v>
+      </c>
+      <c r="G10" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>13.9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>68.5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>151.30000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>69.3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>140.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6">
+        <v>74</v>
+      </c>
+      <c r="G13" s="6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="E19" s="4">
+        <v>47.8</v>
+      </c>
+      <c r="F19" s="4">
+        <v>247.6</v>
+      </c>
+      <c r="G19" s="4">
+        <v>539.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>37.4</v>
+      </c>
+      <c r="F20" s="6">
+        <v>196.3</v>
+      </c>
+      <c r="G20" s="6">
+        <v>435.4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="E21" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="F21" s="4">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="G21" s="4">
+        <v>304.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15.8</v>
+      </c>
+      <c r="F22" s="6">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G22" s="6">
+        <v>197.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>36.9</v>
+      </c>
+      <c r="G23" s="4">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6">
+        <v>27.9</v>
+      </c>
+      <c r="G24" s="6">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="F25" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="G25" s="4">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6">
+        <v>7</v>
+      </c>
+      <c r="F26" s="6">
+        <v>36</v>
+      </c>
+      <c r="G26" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>8</v>
+      </c>
+      <c r="D32" s="4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E32" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F32" s="4">
+        <v>389.2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>798.1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C33" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="D33" s="6">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E33" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F33" s="6">
+        <v>381.5</v>
+      </c>
+      <c r="G33" s="6">
+        <v>787.7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="D34" s="4">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E34" s="4">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F34" s="4">
+        <v>369.7</v>
+      </c>
+      <c r="G34" s="4">
+        <v>737.9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C35" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="D35" s="6">
+        <v>34.4</v>
+      </c>
+      <c r="E35" s="6">
+        <v>68.5</v>
+      </c>
+      <c r="F35" s="6">
+        <v>345.9</v>
+      </c>
+      <c r="G35" s="6">
+        <v>755.7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="D36" s="4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E36" s="4">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="F36" s="4">
+        <v>336.9</v>
+      </c>
+      <c r="G36" s="4">
+        <v>729.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="C37" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="D37" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="E37" s="6">
+        <v>67.3</v>
+      </c>
+      <c r="F37" s="6">
+        <v>326.8</v>
+      </c>
+      <c r="G37" s="6">
+        <v>719.9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="C38" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="D38" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="E38" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F38" s="4">
+        <v>330.1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>670.6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6">
+        <v>30</v>
+      </c>
+      <c r="E39" s="6">
+        <v>80</v>
+      </c>
+      <c r="F39" s="6">
+        <v>312</v>
+      </c>
+      <c r="G39" s="6">
+        <v>631</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:G30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>